--- a/warehouse-bot-main/warehouse.xlsx
+++ b/warehouse-bot-main/warehouse.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veronikademidenko/Desktop/warehouse-bot-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCC27C2-D2BF-8D49-BE4B-F49CBB3DC875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067FF983-5626-AF4A-A091-9D7BE22EFE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="740" windowWidth="28040" windowHeight="17080" xr2:uid="{DBE0C266-C39B-C945-A2C1-71FF8D54FE9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="455">
   <si>
     <t>PartNumber</t>
   </si>
@@ -774,6 +774,633 @@
   </si>
   <si>
     <t>ПГС-500</t>
+  </si>
+  <si>
+    <t>6Б2.390.115</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9Г2.955.018 </t>
+  </si>
+  <si>
+    <t>2005/1670/2054/2042/1519/1239/1167/1605/2229/2035/1781/1004/1603/1662/1025</t>
+  </si>
+  <si>
+    <t>PO19117355</t>
+  </si>
+  <si>
+    <t>5048.00. (ЭЦН-104В)</t>
+  </si>
+  <si>
+    <t>МКТ-4-2А</t>
+  </si>
+  <si>
+    <t>УВПМ1</t>
+  </si>
+  <si>
+    <t>T13800/C57675/P20134/P37412/C49060/P19321</t>
+  </si>
+  <si>
+    <t>Гроза-26</t>
+  </si>
+  <si>
+    <t>МКТ-17Б</t>
+  </si>
+  <si>
+    <t>3413/3355/3358/3082</t>
+  </si>
+  <si>
+    <t>P04212914</t>
+  </si>
+  <si>
+    <t>Терморегулятор 4673</t>
+  </si>
+  <si>
+    <t>ЭПВ-50БТ</t>
+  </si>
+  <si>
+    <t>009111436A</t>
+  </si>
+  <si>
+    <t>99АТ1-04</t>
+  </si>
+  <si>
+    <t>БИ14-1</t>
+  </si>
+  <si>
+    <t>3475/068103224/604106646</t>
+  </si>
+  <si>
+    <t>ЗДН.533.016</t>
+  </si>
+  <si>
+    <t>П-109</t>
+  </si>
+  <si>
+    <t>ТР-200М</t>
+  </si>
+  <si>
+    <t>П-77 ВАР-2</t>
+  </si>
+  <si>
+    <t>П-63</t>
+  </si>
+  <si>
+    <t>П-9Т</t>
+  </si>
+  <si>
+    <t>П-1</t>
+  </si>
+  <si>
+    <t>ДВО-0,7-400</t>
+  </si>
+  <si>
+    <t>ЗВ-1к</t>
+  </si>
+  <si>
+    <t>РШ2Н-1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1479-Б </t>
+  </si>
+  <si>
+    <t>ЛД-49</t>
+  </si>
+  <si>
+    <t>131060K</t>
+  </si>
+  <si>
+    <t>/604400994</t>
+  </si>
+  <si>
+    <t>603700A</t>
+  </si>
+  <si>
+    <t>5402T</t>
+  </si>
+  <si>
+    <t>T6100-107-2</t>
+  </si>
+  <si>
+    <t>Регулятор избыт.давл.</t>
+  </si>
+  <si>
+    <t>ПС62У</t>
+  </si>
+  <si>
+    <t>КР-15</t>
+  </si>
+  <si>
+    <t>682700-2</t>
+  </si>
+  <si>
+    <t>250706/250708</t>
+  </si>
+  <si>
+    <t>П-9-1</t>
+  </si>
+  <si>
+    <t>ИДР-1Д</t>
+  </si>
+  <si>
+    <t>П-7-3</t>
+  </si>
+  <si>
+    <t>пульт гроза ГР-10ДМ</t>
+  </si>
+  <si>
+    <t>190388/190506</t>
+  </si>
+  <si>
+    <t>071-01507-4402</t>
+  </si>
+  <si>
+    <t>П-10-4</t>
+  </si>
+  <si>
+    <t>522-3487-002</t>
+  </si>
+  <si>
+    <t>ИДР-1Б</t>
+  </si>
+  <si>
+    <t>МКВ-251А</t>
+  </si>
+  <si>
+    <t>П-33-4</t>
+  </si>
+  <si>
+    <t>ИДР-1В</t>
+  </si>
+  <si>
+    <t>ИДР-2</t>
+  </si>
+  <si>
+    <t>412-490-017</t>
+  </si>
+  <si>
+    <t>УВО-15К</t>
+  </si>
+  <si>
+    <t>УГА-1Ук</t>
+  </si>
+  <si>
+    <t>УВИД-30-15-2</t>
+  </si>
+  <si>
+    <t>НПП-ТК 3 сер</t>
+  </si>
+  <si>
+    <t>9043/30205/28040</t>
+  </si>
+  <si>
+    <t>TVI-920</t>
+  </si>
+  <si>
+    <t>14FKW</t>
+  </si>
+  <si>
+    <t>2В0.283.372</t>
+  </si>
+  <si>
+    <t>5189K/3940</t>
+  </si>
+  <si>
+    <t>УС-П-ПВ</t>
+  </si>
+  <si>
+    <t>БУ-1 (УВИД-30-15)</t>
+  </si>
+  <si>
+    <t>ВР-30ПБ</t>
+  </si>
+  <si>
+    <t>3K-4</t>
+  </si>
+  <si>
+    <t>СНП-1</t>
+  </si>
+  <si>
+    <t>ВАР-75Мк</t>
+  </si>
+  <si>
+    <t>ЭУП-53-К</t>
+  </si>
+  <si>
+    <t>81438/79998</t>
+  </si>
+  <si>
+    <t>101523/221489</t>
+  </si>
+  <si>
+    <t>ВР-75ПБ</t>
+  </si>
+  <si>
+    <t>УВ-5</t>
+  </si>
+  <si>
+    <t>КУС-730/1100</t>
+  </si>
+  <si>
+    <t>ТИ0179</t>
+  </si>
+  <si>
+    <t>KFS-578a</t>
+  </si>
+  <si>
+    <t>УРКВ-18</t>
+  </si>
+  <si>
+    <t>RAP-30Mk</t>
+  </si>
+  <si>
+    <t>A64540</t>
+  </si>
+  <si>
+    <t>Рулевая Машина РМД-25-2Б</t>
+  </si>
+  <si>
+    <t>ГА77Н</t>
+  </si>
+  <si>
+    <t>H302Д449</t>
+  </si>
+  <si>
+    <t>ГА121М-3</t>
+  </si>
+  <si>
+    <t>H111K353</t>
+  </si>
+  <si>
+    <t>604200153/604106753</t>
+  </si>
+  <si>
+    <t>9ИН</t>
+  </si>
+  <si>
+    <t>4073AT</t>
+  </si>
+  <si>
+    <t>Комплект монтажных деталей ГА211А-00-1</t>
+  </si>
+  <si>
+    <t>ГА192Т</t>
+  </si>
+  <si>
+    <t>ГА192</t>
+  </si>
+  <si>
+    <t>ГР26</t>
+  </si>
+  <si>
+    <t>0A0051</t>
+  </si>
+  <si>
+    <t>КР56</t>
+  </si>
+  <si>
+    <t>ГА211А-00-5</t>
+  </si>
+  <si>
+    <t>П01627002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">М11 модуль </t>
+  </si>
+  <si>
+    <t>0365826/0945140</t>
+  </si>
+  <si>
+    <t>МС-61Б</t>
+  </si>
+  <si>
+    <t>ГА184У/</t>
+  </si>
+  <si>
+    <t>6B1390/6В1337/6В1345/6В1351/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГА192 </t>
+  </si>
+  <si>
+    <t>ГА142/2</t>
+  </si>
+  <si>
+    <t>ГА213202044</t>
+  </si>
+  <si>
+    <t>6Г0307</t>
+  </si>
+  <si>
+    <t>ГА135Т-0045</t>
+  </si>
+  <si>
+    <t>ГА140</t>
+  </si>
+  <si>
+    <t>3A0497</t>
+  </si>
+  <si>
+    <t>ГА213202045</t>
+  </si>
+  <si>
+    <t>ГА213202047</t>
+  </si>
+  <si>
+    <t>ГА1845У/4</t>
+  </si>
+  <si>
+    <t>ГА211А-00</t>
+  </si>
+  <si>
+    <t>12526124/П08036026</t>
+  </si>
+  <si>
+    <t>ПК-9Б</t>
+  </si>
+  <si>
+    <t>УП-61-1-0,8</t>
+  </si>
+  <si>
+    <t>ТР-45</t>
+  </si>
+  <si>
+    <t>ГА192/2</t>
+  </si>
+  <si>
+    <t>ГА192/</t>
+  </si>
+  <si>
+    <t>4640870430/50089</t>
+  </si>
+  <si>
+    <t>ПО1627004</t>
+  </si>
+  <si>
+    <t>12628088/12628089/</t>
+  </si>
+  <si>
+    <t>H27</t>
+  </si>
+  <si>
+    <t>ПЭС-200/115</t>
+  </si>
+  <si>
+    <t>032Б</t>
+  </si>
+  <si>
+    <t>тестер для проверки двигателя  Алимпус</t>
+  </si>
+  <si>
+    <t>коробка рале 048</t>
+  </si>
+  <si>
+    <t>коробка рале 032Б</t>
+  </si>
+  <si>
+    <t>коробка рале Н20</t>
+  </si>
+  <si>
+    <t>коробка рале Р50</t>
+  </si>
+  <si>
+    <t>11ВФ12</t>
+  </si>
+  <si>
+    <t>МПК-13БТВ</t>
+  </si>
+  <si>
+    <t>E7641644</t>
+  </si>
+  <si>
+    <t>12ТФ15Ш</t>
+  </si>
+  <si>
+    <t>92Г0081</t>
+  </si>
+  <si>
+    <t>ЛФСМ 27-450-1</t>
+  </si>
+  <si>
+    <t>34693/34888</t>
+  </si>
+  <si>
+    <t>8Д2Ю966Ю018-2</t>
+  </si>
+  <si>
+    <t>Р68ДК-24 (фильтр)</t>
+  </si>
+  <si>
+    <t>88A0155/88B0472</t>
+  </si>
+  <si>
+    <t>Заслонка Герметизации</t>
+  </si>
+  <si>
+    <t>МЗК3</t>
+  </si>
+  <si>
+    <t>МЗК-2 сер 2 (с заслонкой)</t>
+  </si>
+  <si>
+    <t>МКВ-41 сер 2</t>
+  </si>
+  <si>
+    <t>E833257</t>
+  </si>
+  <si>
+    <t>E7422471/E73275</t>
+  </si>
+  <si>
+    <t>ЭЦН-83</t>
+  </si>
+  <si>
+    <t>P098090188</t>
+  </si>
+  <si>
+    <t>ИТА-6М</t>
+  </si>
+  <si>
+    <t>МПК-13ДТВ</t>
+  </si>
+  <si>
+    <t>E9020612/742573/813985</t>
+  </si>
+  <si>
+    <t>МПК-13И-5</t>
+  </si>
+  <si>
+    <t>0607007/1187483/1031029/0832202</t>
+  </si>
+  <si>
+    <t>ЭМТ-171</t>
+  </si>
+  <si>
+    <t>МПК-13ВТВ</t>
+  </si>
+  <si>
+    <t>ИКУ1А</t>
+  </si>
+  <si>
+    <t>A-034-4-22</t>
+  </si>
+  <si>
+    <t>УВ-75-15ПВ</t>
+  </si>
+  <si>
+    <t>A-034-4-17</t>
+  </si>
+  <si>
+    <t>ИКУ-1А</t>
+  </si>
+  <si>
+    <t>А-034-4-24</t>
+  </si>
+  <si>
+    <t>УТ02к-3</t>
+  </si>
+  <si>
+    <t>УТ02-2</t>
+  </si>
+  <si>
+    <t>ВФ0б4-400</t>
+  </si>
+  <si>
+    <t>КП2А-17</t>
+  </si>
+  <si>
+    <t>1КНИ-11Б-Т</t>
+  </si>
+  <si>
+    <t>А-037-1А</t>
+  </si>
+  <si>
+    <t>МКВ-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПС5 </t>
+  </si>
+  <si>
+    <t>МКВ-253А</t>
+  </si>
+  <si>
+    <t>УВ-5-1</t>
+  </si>
+  <si>
+    <t>ВАР-30МК</t>
+  </si>
+  <si>
+    <t>ПМ0-10В</t>
+  </si>
+  <si>
+    <t>/27707707044/46404017094/40305914069</t>
+  </si>
+  <si>
+    <t>ЭЦН40</t>
+  </si>
+  <si>
+    <t>P111037301</t>
+  </si>
+  <si>
+    <t>ВР-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЗК-2 сер 2 </t>
+  </si>
+  <si>
+    <t>E7711824</t>
+  </si>
+  <si>
+    <t>E724885</t>
+  </si>
+  <si>
+    <t>МП-100М-2сер</t>
+  </si>
+  <si>
+    <t>E793611</t>
+  </si>
+  <si>
+    <t>МП-100МТ</t>
+  </si>
+  <si>
+    <t>E831968</t>
+  </si>
+  <si>
+    <t>E8323387</t>
+  </si>
+  <si>
+    <t>E 7443545</t>
+  </si>
+  <si>
+    <t>E745518</t>
+  </si>
+  <si>
+    <t>МПК-1</t>
+  </si>
+  <si>
+    <t>A81623</t>
+  </si>
+  <si>
+    <t>2Г1092</t>
+  </si>
+  <si>
+    <t>ПВД</t>
+  </si>
+  <si>
+    <t>ОГ-68</t>
+  </si>
+  <si>
+    <t>РН-180М</t>
+  </si>
+  <si>
+    <t>E781416</t>
+  </si>
+  <si>
+    <t>РН-120У</t>
+  </si>
+  <si>
+    <t>ПТС-25М</t>
+  </si>
+  <si>
+    <t>ТС320С04А</t>
+  </si>
+  <si>
+    <t>ППД-1</t>
+  </si>
+  <si>
+    <t>УДП-1М</t>
+  </si>
+  <si>
+    <t>РН600 2 Сер</t>
+  </si>
+  <si>
+    <t>E774158</t>
+  </si>
+  <si>
+    <t>РН-600 2 сер</t>
+  </si>
+  <si>
+    <t>E634140</t>
+  </si>
+  <si>
+    <t>РН-180ПТ</t>
+  </si>
+  <si>
+    <t>E6919</t>
+  </si>
+  <si>
+    <t>ПТ-125ц-3сер</t>
+  </si>
+  <si>
+    <t>ПТ-200Ц-111</t>
+  </si>
+  <si>
+    <t>КП-3</t>
+  </si>
+  <si>
+    <t>ЭИ708А</t>
   </si>
 </sst>
 </file>
@@ -1145,16 +1772,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9FB27-F38E-8747-AEA1-0F2544045520}">
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H396" sqref="H396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -6695,6 +7322,4686 @@
         <v>7</v>
       </c>
     </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>246</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>247</v>
+      </c>
+      <c r="E217" t="s">
+        <v>7</v>
+      </c>
+      <c r="F217" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217">
+        <v>6862640</v>
+      </c>
+      <c r="H217" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>248</v>
+      </c>
+      <c r="B218">
+        <v>15</v>
+      </c>
+      <c r="C218">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>247</v>
+      </c>
+      <c r="E218" t="s">
+        <v>7</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" t="s">
+        <v>249</v>
+      </c>
+      <c r="H218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>251</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>247</v>
+      </c>
+      <c r="E219" t="s">
+        <v>7</v>
+      </c>
+      <c r="F219" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
+        <v>250</v>
+      </c>
+      <c r="H219" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>252</v>
+      </c>
+      <c r="B220">
+        <v>4</v>
+      </c>
+      <c r="C220">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>247</v>
+      </c>
+      <c r="E220" t="s">
+        <v>7</v>
+      </c>
+      <c r="F220" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" t="s">
+        <v>257</v>
+      </c>
+      <c r="H220" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>253</v>
+      </c>
+      <c r="B221">
+        <v>6</v>
+      </c>
+      <c r="C221">
+        <v>6</v>
+      </c>
+      <c r="D221" t="s">
+        <v>247</v>
+      </c>
+      <c r="E221" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" t="s">
+        <v>254</v>
+      </c>
+      <c r="H221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>255</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>6</v>
+      </c>
+      <c r="D222" t="s">
+        <v>247</v>
+      </c>
+      <c r="E222" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222">
+        <v>36158</v>
+      </c>
+      <c r="H222" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>256</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>247</v>
+      </c>
+      <c r="E223" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" t="s">
+        <v>55</v>
+      </c>
+      <c r="H223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>259</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>247</v>
+      </c>
+      <c r="E224" t="s">
+        <v>7</v>
+      </c>
+      <c r="F224" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" t="s">
+        <v>258</v>
+      </c>
+      <c r="H224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>260</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
+        <v>247</v>
+      </c>
+      <c r="E225" t="s">
+        <v>7</v>
+      </c>
+      <c r="F225" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" t="s">
+        <v>261</v>
+      </c>
+      <c r="H225" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>262</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
+        <v>247</v>
+      </c>
+      <c r="E226" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" t="s">
+        <v>55</v>
+      </c>
+      <c r="H226" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>263</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>6</v>
+      </c>
+      <c r="D227" t="s">
+        <v>247</v>
+      </c>
+      <c r="E227" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227">
+        <v>6333333</v>
+      </c>
+      <c r="H227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>252</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
+        <v>247</v>
+      </c>
+      <c r="E228" t="s">
+        <v>7</v>
+      </c>
+      <c r="F228" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" t="s">
+        <v>264</v>
+      </c>
+      <c r="H228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>265</v>
+      </c>
+      <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="C229">
+        <v>6</v>
+      </c>
+      <c r="D229" t="s">
+        <v>247</v>
+      </c>
+      <c r="E229" t="s">
+        <v>7</v>
+      </c>
+      <c r="F229" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229">
+        <v>1896</v>
+      </c>
+      <c r="H229" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>266</v>
+      </c>
+      <c r="B230">
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>247</v>
+      </c>
+      <c r="E230" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230">
+        <v>239058</v>
+      </c>
+      <c r="H230" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>267</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>247</v>
+      </c>
+      <c r="E231" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231">
+        <v>325</v>
+      </c>
+      <c r="H231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>268</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>247</v>
+      </c>
+      <c r="E232" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232">
+        <v>114376</v>
+      </c>
+      <c r="H232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>269</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>247</v>
+      </c>
+      <c r="E233" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233">
+        <v>1212912</v>
+      </c>
+      <c r="H233" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>270</v>
+      </c>
+      <c r="B234">
+        <v>5</v>
+      </c>
+      <c r="C234">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>247</v>
+      </c>
+      <c r="E234" t="s">
+        <v>7</v>
+      </c>
+      <c r="F234" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" t="s">
+        <v>55</v>
+      </c>
+      <c r="H234" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>271</v>
+      </c>
+      <c r="B235">
+        <v>18</v>
+      </c>
+      <c r="C235">
+        <v>6</v>
+      </c>
+      <c r="D235" t="s">
+        <v>247</v>
+      </c>
+      <c r="E235" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" t="s">
+        <v>55</v>
+      </c>
+      <c r="H235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>272</v>
+      </c>
+      <c r="B236">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>6</v>
+      </c>
+      <c r="D236" t="s">
+        <v>247</v>
+      </c>
+      <c r="E236" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" t="s">
+        <v>55</v>
+      </c>
+      <c r="H236" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>273</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>6</v>
+      </c>
+      <c r="D237" t="s">
+        <v>247</v>
+      </c>
+      <c r="E237" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237">
+        <v>4602</v>
+      </c>
+      <c r="H237" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>274</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>6</v>
+      </c>
+      <c r="D238" t="s">
+        <v>247</v>
+      </c>
+      <c r="E238" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238">
+        <v>1081</v>
+      </c>
+      <c r="H238" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>275</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>6</v>
+      </c>
+      <c r="D239" t="s">
+        <v>247</v>
+      </c>
+      <c r="E239" t="s">
+        <v>7</v>
+      </c>
+      <c r="F239" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239">
+        <v>190533</v>
+      </c>
+      <c r="H239" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>256</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240">
+        <v>6</v>
+      </c>
+      <c r="D240" t="s">
+        <v>247</v>
+      </c>
+      <c r="E240" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" t="s">
+        <v>278</v>
+      </c>
+      <c r="H240" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>276</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>247</v>
+      </c>
+      <c r="E241" t="s">
+        <v>7</v>
+      </c>
+      <c r="F241" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" t="s">
+        <v>277</v>
+      </c>
+      <c r="H241" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>252</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>6</v>
+      </c>
+      <c r="D242" t="s">
+        <v>247</v>
+      </c>
+      <c r="E242" t="s">
+        <v>7</v>
+      </c>
+      <c r="F242" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242">
+        <v>68103427</v>
+      </c>
+      <c r="H242" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>279</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>7</v>
+      </c>
+      <c r="D243" t="s">
+        <v>247</v>
+      </c>
+      <c r="E243" t="s">
+        <v>7</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243">
+        <v>3508</v>
+      </c>
+      <c r="H243" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>280</v>
+      </c>
+      <c r="B244">
+        <v>5</v>
+      </c>
+      <c r="C244">
+        <v>7</v>
+      </c>
+      <c r="D244" t="s">
+        <v>247</v>
+      </c>
+      <c r="E244" t="s">
+        <v>7</v>
+      </c>
+      <c r="F244" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244">
+        <v>1061319</v>
+      </c>
+      <c r="H244" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>281</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>7</v>
+      </c>
+      <c r="D245" t="s">
+        <v>247</v>
+      </c>
+      <c r="E245" t="s">
+        <v>7</v>
+      </c>
+      <c r="F245" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245">
+        <v>83407001</v>
+      </c>
+      <c r="H245" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>282</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>7</v>
+      </c>
+      <c r="D246" t="s">
+        <v>247</v>
+      </c>
+      <c r="E246" t="s">
+        <v>7</v>
+      </c>
+      <c r="F246" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246">
+        <v>160010</v>
+      </c>
+      <c r="H246" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>283</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>7</v>
+      </c>
+      <c r="D247" t="s">
+        <v>247</v>
+      </c>
+      <c r="E247" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" t="s">
+        <v>55</v>
+      </c>
+      <c r="H247" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>284</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>7</v>
+      </c>
+      <c r="D248" t="s">
+        <v>247</v>
+      </c>
+      <c r="E248" t="s">
+        <v>7</v>
+      </c>
+      <c r="F248" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248">
+        <v>1660</v>
+      </c>
+      <c r="H248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>147</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+      <c r="D249" t="s">
+        <v>136</v>
+      </c>
+      <c r="E249" t="s">
+        <v>7</v>
+      </c>
+      <c r="F249" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249">
+        <v>19110773</v>
+      </c>
+      <c r="H249" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>285</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+      <c r="C250">
+        <v>7</v>
+      </c>
+      <c r="D250" t="s">
+        <v>247</v>
+      </c>
+      <c r="E250" t="s">
+        <v>7</v>
+      </c>
+      <c r="F250" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" t="s">
+        <v>286</v>
+      </c>
+      <c r="H250" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>287</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>8</v>
+      </c>
+      <c r="D251" t="s">
+        <v>247</v>
+      </c>
+      <c r="E251" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" t="s">
+        <v>55</v>
+      </c>
+      <c r="H251" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>288</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+      <c r="C252">
+        <v>8</v>
+      </c>
+      <c r="D252" t="s">
+        <v>247</v>
+      </c>
+      <c r="E252" t="s">
+        <v>7</v>
+      </c>
+      <c r="F252" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" t="s">
+        <v>291</v>
+      </c>
+      <c r="H252" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>289</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>8</v>
+      </c>
+      <c r="D253" t="s">
+        <v>247</v>
+      </c>
+      <c r="E253" t="s">
+        <v>9</v>
+      </c>
+      <c r="F253" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253">
+        <v>9460771005</v>
+      </c>
+      <c r="H253" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>290</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>8</v>
+      </c>
+      <c r="D254" t="s">
+        <v>247</v>
+      </c>
+      <c r="E254" t="s">
+        <v>9</v>
+      </c>
+      <c r="F254" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" t="s">
+        <v>55</v>
+      </c>
+      <c r="H254" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>292</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>8</v>
+      </c>
+      <c r="D255" t="s">
+        <v>247</v>
+      </c>
+      <c r="E255" t="s">
+        <v>9</v>
+      </c>
+      <c r="F255" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255">
+        <v>1459</v>
+      </c>
+      <c r="H255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>293</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>8</v>
+      </c>
+      <c r="D256" t="s">
+        <v>247</v>
+      </c>
+      <c r="E256" t="s">
+        <v>9</v>
+      </c>
+      <c r="F256" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256">
+        <v>9460674961</v>
+      </c>
+      <c r="H256" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>294</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>8</v>
+      </c>
+      <c r="D257" t="s">
+        <v>247</v>
+      </c>
+      <c r="E257" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257">
+        <v>6068</v>
+      </c>
+      <c r="H257" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>295</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>8</v>
+      </c>
+      <c r="D258" t="s">
+        <v>247</v>
+      </c>
+      <c r="E258" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258">
+        <v>310153</v>
+      </c>
+      <c r="H258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>296</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>8</v>
+      </c>
+      <c r="D259" t="s">
+        <v>247</v>
+      </c>
+      <c r="E259" t="s">
+        <v>7</v>
+      </c>
+      <c r="F259" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" t="s">
+        <v>55</v>
+      </c>
+      <c r="H259" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>297</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>8</v>
+      </c>
+      <c r="D260" t="s">
+        <v>247</v>
+      </c>
+      <c r="E260" t="s">
+        <v>9</v>
+      </c>
+      <c r="F260" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260">
+        <v>9460771005</v>
+      </c>
+      <c r="H260" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>298</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>8</v>
+      </c>
+      <c r="D261" t="s">
+        <v>247</v>
+      </c>
+      <c r="E261" t="s">
+        <v>115</v>
+      </c>
+      <c r="F261" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261">
+        <v>200293</v>
+      </c>
+      <c r="H261" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>299</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>8</v>
+      </c>
+      <c r="D262" t="s">
+        <v>247</v>
+      </c>
+      <c r="E262" t="s">
+        <v>9</v>
+      </c>
+      <c r="F262" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" t="s">
+        <v>55</v>
+      </c>
+      <c r="H262" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>300</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+      <c r="C263">
+        <v>8</v>
+      </c>
+      <c r="D263" t="s">
+        <v>247</v>
+      </c>
+      <c r="E263" t="s">
+        <v>9</v>
+      </c>
+      <c r="F263" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" t="s">
+        <v>55</v>
+      </c>
+      <c r="H263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>301</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>9</v>
+      </c>
+      <c r="D264" t="s">
+        <v>247</v>
+      </c>
+      <c r="E264" t="s">
+        <v>7</v>
+      </c>
+      <c r="F264" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264">
+        <v>5701569</v>
+      </c>
+      <c r="H264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>302</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>9</v>
+      </c>
+      <c r="D265" t="s">
+        <v>247</v>
+      </c>
+      <c r="E265" t="s">
+        <v>7</v>
+      </c>
+      <c r="F265" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265">
+        <v>570242</v>
+      </c>
+      <c r="H265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>303</v>
+      </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
+      <c r="C266">
+        <v>9</v>
+      </c>
+      <c r="D266" t="s">
+        <v>247</v>
+      </c>
+      <c r="E266" t="s">
+        <v>7</v>
+      </c>
+      <c r="F266" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" t="s">
+        <v>305</v>
+      </c>
+      <c r="H266" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>304</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>9</v>
+      </c>
+      <c r="D267" t="s">
+        <v>247</v>
+      </c>
+      <c r="E267" t="s">
+        <v>7</v>
+      </c>
+      <c r="F267" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267">
+        <v>5241020157</v>
+      </c>
+      <c r="H267" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>306</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>9</v>
+      </c>
+      <c r="D268" t="s">
+        <v>247</v>
+      </c>
+      <c r="E268" t="s">
+        <v>9</v>
+      </c>
+      <c r="F268" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" t="s">
+        <v>307</v>
+      </c>
+      <c r="H268" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>308</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269">
+        <v>9</v>
+      </c>
+      <c r="D269" t="s">
+        <v>247</v>
+      </c>
+      <c r="E269" t="s">
+        <v>7</v>
+      </c>
+      <c r="F269" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" t="s">
+        <v>309</v>
+      </c>
+      <c r="H269" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>310</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>9</v>
+      </c>
+      <c r="D270" t="s">
+        <v>247</v>
+      </c>
+      <c r="E270" t="s">
+        <v>9</v>
+      </c>
+      <c r="F270" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270">
+        <v>1072</v>
+      </c>
+      <c r="H270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>311</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>9</v>
+      </c>
+      <c r="D271" t="s">
+        <v>247</v>
+      </c>
+      <c r="E271" t="s">
+        <v>7</v>
+      </c>
+      <c r="F271" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271">
+        <v>18165</v>
+      </c>
+      <c r="H271" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>312</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>9</v>
+      </c>
+      <c r="D272" t="s">
+        <v>247</v>
+      </c>
+      <c r="E272" t="s">
+        <v>7</v>
+      </c>
+      <c r="F272" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272">
+        <v>3091</v>
+      </c>
+      <c r="H272" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>313</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>9</v>
+      </c>
+      <c r="D273" t="s">
+        <v>247</v>
+      </c>
+      <c r="E273" t="s">
+        <v>9</v>
+      </c>
+      <c r="F273" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273">
+        <v>661265</v>
+      </c>
+      <c r="H273" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>314</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274">
+        <v>9</v>
+      </c>
+      <c r="D274" t="s">
+        <v>247</v>
+      </c>
+      <c r="E274" t="s">
+        <v>9</v>
+      </c>
+      <c r="F274" t="s">
+        <v>9</v>
+      </c>
+      <c r="G274">
+        <v>1190987902</v>
+      </c>
+      <c r="H274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>9</v>
+      </c>
+      <c r="D275" t="s">
+        <v>247</v>
+      </c>
+      <c r="E275" t="s">
+        <v>9</v>
+      </c>
+      <c r="F275" t="s">
+        <v>10</v>
+      </c>
+      <c r="G275" t="s">
+        <v>55</v>
+      </c>
+      <c r="H275" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>315</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276">
+        <v>9</v>
+      </c>
+      <c r="D276" t="s">
+        <v>247</v>
+      </c>
+      <c r="E276" t="s">
+        <v>7</v>
+      </c>
+      <c r="F276" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" t="s">
+        <v>317</v>
+      </c>
+      <c r="H276" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>311</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>9</v>
+      </c>
+      <c r="D277" t="s">
+        <v>247</v>
+      </c>
+      <c r="E277" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277">
+        <v>6693</v>
+      </c>
+      <c r="H277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>316</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>9</v>
+      </c>
+      <c r="D278" t="s">
+        <v>247</v>
+      </c>
+      <c r="E278" t="s">
+        <v>7</v>
+      </c>
+      <c r="F278" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278">
+        <v>175794</v>
+      </c>
+      <c r="H278" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>276</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279">
+        <v>9</v>
+      </c>
+      <c r="D279" t="s">
+        <v>247</v>
+      </c>
+      <c r="E279" t="s">
+        <v>7</v>
+      </c>
+      <c r="F279" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" t="s">
+        <v>318</v>
+      </c>
+      <c r="H279" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>312</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>9</v>
+      </c>
+      <c r="D280" t="s">
+        <v>247</v>
+      </c>
+      <c r="E280" t="s">
+        <v>7</v>
+      </c>
+      <c r="F280" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280">
+        <v>1035</v>
+      </c>
+      <c r="H280" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>319</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>9</v>
+      </c>
+      <c r="D281" t="s">
+        <v>247</v>
+      </c>
+      <c r="E281" t="s">
+        <v>7</v>
+      </c>
+      <c r="F281" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281">
+        <v>619</v>
+      </c>
+      <c r="H281" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>320</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>9</v>
+      </c>
+      <c r="D282" t="s">
+        <v>247</v>
+      </c>
+      <c r="E282" t="s">
+        <v>7</v>
+      </c>
+      <c r="F282" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282">
+        <v>1030</v>
+      </c>
+      <c r="H282" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>321</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283">
+        <v>9</v>
+      </c>
+      <c r="D283" t="s">
+        <v>247</v>
+      </c>
+      <c r="E283" t="s">
+        <v>7</v>
+      </c>
+      <c r="F283" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283">
+        <v>380253</v>
+      </c>
+      <c r="H283" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>276</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>9</v>
+      </c>
+      <c r="D284" t="s">
+        <v>247</v>
+      </c>
+      <c r="E284" t="s">
+        <v>7</v>
+      </c>
+      <c r="F284" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" t="s">
+        <v>322</v>
+      </c>
+      <c r="H284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>323</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>9</v>
+      </c>
+      <c r="D285" t="s">
+        <v>247</v>
+      </c>
+      <c r="E285" t="s">
+        <v>9</v>
+      </c>
+      <c r="F285" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285">
+        <v>3184</v>
+      </c>
+      <c r="H285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>324</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <v>9</v>
+      </c>
+      <c r="D286" t="s">
+        <v>247</v>
+      </c>
+      <c r="E286" t="s">
+        <v>7</v>
+      </c>
+      <c r="F286" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286">
+        <v>7310</v>
+      </c>
+      <c r="H286" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>7130</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>9</v>
+      </c>
+      <c r="D287" t="s">
+        <v>247</v>
+      </c>
+      <c r="E287" t="s">
+        <v>9</v>
+      </c>
+      <c r="F287" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287">
+        <v>6882</v>
+      </c>
+      <c r="H287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>325</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>9</v>
+      </c>
+      <c r="D288" t="s">
+        <v>247</v>
+      </c>
+      <c r="E288" t="s">
+        <v>7</v>
+      </c>
+      <c r="F288" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" t="s">
+        <v>326</v>
+      </c>
+      <c r="H288" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>327</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>10</v>
+      </c>
+      <c r="D289" t="s">
+        <v>247</v>
+      </c>
+      <c r="E289" t="s">
+        <v>7</v>
+      </c>
+      <c r="F289" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289">
+        <v>1161122</v>
+      </c>
+      <c r="H289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>328</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>10</v>
+      </c>
+      <c r="D290" t="s">
+        <v>247</v>
+      </c>
+      <c r="E290" t="s">
+        <v>9</v>
+      </c>
+      <c r="F290" t="s">
+        <v>9</v>
+      </c>
+      <c r="G290" t="s">
+        <v>329</v>
+      </c>
+      <c r="H290" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>330</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <v>10</v>
+      </c>
+      <c r="D291" t="s">
+        <v>247</v>
+      </c>
+      <c r="E291" t="s">
+        <v>9</v>
+      </c>
+      <c r="F291" t="s">
+        <v>9</v>
+      </c>
+      <c r="G291">
+        <v>27710948467</v>
+      </c>
+      <c r="H291" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>328</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>10</v>
+      </c>
+      <c r="D292" t="s">
+        <v>247</v>
+      </c>
+      <c r="E292" t="s">
+        <v>9</v>
+      </c>
+      <c r="F292" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" t="s">
+        <v>331</v>
+      </c>
+      <c r="H292" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>252</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="C293">
+        <v>10</v>
+      </c>
+      <c r="D293" t="s">
+        <v>247</v>
+      </c>
+      <c r="E293" t="s">
+        <v>7</v>
+      </c>
+      <c r="F293" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" t="s">
+        <v>332</v>
+      </c>
+      <c r="H293" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>256</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>10</v>
+      </c>
+      <c r="D294" t="s">
+        <v>247</v>
+      </c>
+      <c r="E294" t="s">
+        <v>9</v>
+      </c>
+      <c r="F294" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294">
+        <v>68200950</v>
+      </c>
+      <c r="H294" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>333</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>10</v>
+      </c>
+      <c r="D295" t="s">
+        <v>247</v>
+      </c>
+      <c r="E295" t="s">
+        <v>9</v>
+      </c>
+      <c r="F295" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" t="s">
+        <v>334</v>
+      </c>
+      <c r="H295" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>335</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>10</v>
+      </c>
+      <c r="D296" t="s">
+        <v>247</v>
+      </c>
+      <c r="E296" t="s">
+        <v>9</v>
+      </c>
+      <c r="F296" t="s">
+        <v>9</v>
+      </c>
+      <c r="G296" t="s">
+        <v>55</v>
+      </c>
+      <c r="H296" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>336</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="C297">
+        <v>10</v>
+      </c>
+      <c r="D297" t="s">
+        <v>247</v>
+      </c>
+      <c r="E297" t="s">
+        <v>9</v>
+      </c>
+      <c r="F297" t="s">
+        <v>9</v>
+      </c>
+      <c r="G297" t="s">
+        <v>55</v>
+      </c>
+      <c r="H297" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>337</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>10</v>
+      </c>
+      <c r="D298" t="s">
+        <v>247</v>
+      </c>
+      <c r="E298" t="s">
+        <v>9</v>
+      </c>
+      <c r="F298" t="s">
+        <v>9</v>
+      </c>
+      <c r="G298">
+        <v>3381010895</v>
+      </c>
+      <c r="H298" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>338</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+      <c r="D299" t="s">
+        <v>247</v>
+      </c>
+      <c r="E299" t="s">
+        <v>9</v>
+      </c>
+      <c r="F299" t="s">
+        <v>9</v>
+      </c>
+      <c r="G299" t="s">
+        <v>55</v>
+      </c>
+      <c r="H299" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>339</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>10</v>
+      </c>
+      <c r="D300" t="s">
+        <v>247</v>
+      </c>
+      <c r="E300" t="s">
+        <v>9</v>
+      </c>
+      <c r="F300" t="s">
+        <v>9</v>
+      </c>
+      <c r="G300" t="s">
+        <v>55</v>
+      </c>
+      <c r="H300" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>340</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>10</v>
+      </c>
+      <c r="D301" t="s">
+        <v>247</v>
+      </c>
+      <c r="E301" t="s">
+        <v>9</v>
+      </c>
+      <c r="F301" t="s">
+        <v>10</v>
+      </c>
+      <c r="G301">
+        <v>3547</v>
+      </c>
+      <c r="H301" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>341</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>10</v>
+      </c>
+      <c r="D302" t="s">
+        <v>247</v>
+      </c>
+      <c r="E302" t="s">
+        <v>9</v>
+      </c>
+      <c r="F302" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" t="s">
+        <v>342</v>
+      </c>
+      <c r="H302" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>343</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303">
+        <v>10</v>
+      </c>
+      <c r="D303" t="s">
+        <v>247</v>
+      </c>
+      <c r="E303" t="s">
+        <v>7</v>
+      </c>
+      <c r="F303" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" t="s">
+        <v>344</v>
+      </c>
+      <c r="H303" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>345</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>10</v>
+      </c>
+      <c r="D304" t="s">
+        <v>247</v>
+      </c>
+      <c r="E304" t="s">
+        <v>9</v>
+      </c>
+      <c r="F304" t="s">
+        <v>10</v>
+      </c>
+      <c r="G304" t="s">
+        <v>55</v>
+      </c>
+      <c r="H304" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>346</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s">
+        <v>247</v>
+      </c>
+      <c r="E305" t="s">
+        <v>7</v>
+      </c>
+      <c r="F305" t="s">
+        <v>10</v>
+      </c>
+      <c r="G305" t="s">
+        <v>347</v>
+      </c>
+      <c r="H305" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>348</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s">
+        <v>247</v>
+      </c>
+      <c r="E306" t="s">
+        <v>9</v>
+      </c>
+      <c r="F306" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306">
+        <v>4640601522</v>
+      </c>
+      <c r="H306" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>349</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s">
+        <v>247</v>
+      </c>
+      <c r="E307" t="s">
+        <v>9</v>
+      </c>
+      <c r="F307" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" t="s">
+        <v>55</v>
+      </c>
+      <c r="H307" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>350</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s">
+        <v>247</v>
+      </c>
+      <c r="E308" t="s">
+        <v>9</v>
+      </c>
+      <c r="F308" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" t="s">
+        <v>55</v>
+      </c>
+      <c r="H308" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>352</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s">
+        <v>247</v>
+      </c>
+      <c r="E309" t="s">
+        <v>7</v>
+      </c>
+      <c r="F309" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" t="s">
+        <v>351</v>
+      </c>
+      <c r="H309" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>353</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s">
+        <v>247</v>
+      </c>
+      <c r="E310" t="s">
+        <v>7</v>
+      </c>
+      <c r="F310" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" t="s">
+        <v>354</v>
+      </c>
+      <c r="H310" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>355</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s">
+        <v>247</v>
+      </c>
+      <c r="E311" t="s">
+        <v>9</v>
+      </c>
+      <c r="F311" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" t="s">
+        <v>55</v>
+      </c>
+      <c r="H311" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>356</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s">
+        <v>247</v>
+      </c>
+      <c r="E312" t="s">
+        <v>9</v>
+      </c>
+      <c r="F312" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" t="s">
+        <v>55</v>
+      </c>
+      <c r="H312" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>357</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s">
+        <v>247</v>
+      </c>
+      <c r="E313" t="s">
+        <v>9</v>
+      </c>
+      <c r="F313" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" t="s">
+        <v>55</v>
+      </c>
+      <c r="H313" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>358</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s">
+        <v>247</v>
+      </c>
+      <c r="E314" t="s">
+        <v>7</v>
+      </c>
+      <c r="F314" t="s">
+        <v>10</v>
+      </c>
+      <c r="G314" t="s">
+        <v>359</v>
+      </c>
+      <c r="H314" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>360</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s">
+        <v>247</v>
+      </c>
+      <c r="E315" t="s">
+        <v>9</v>
+      </c>
+      <c r="F315" t="s">
+        <v>10</v>
+      </c>
+      <c r="G315">
+        <v>852276</v>
+      </c>
+      <c r="H315" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>361</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s">
+        <v>247</v>
+      </c>
+      <c r="E316" t="s">
+        <v>9</v>
+      </c>
+      <c r="F316" t="s">
+        <v>10</v>
+      </c>
+      <c r="G316" t="s">
+        <v>55</v>
+      </c>
+      <c r="H316" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>362</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s">
+        <v>247</v>
+      </c>
+      <c r="E317" t="s">
+        <v>9</v>
+      </c>
+      <c r="F317" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317">
+        <v>3872192</v>
+      </c>
+      <c r="H317" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>363</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s">
+        <v>247</v>
+      </c>
+      <c r="E318" t="s">
+        <v>7</v>
+      </c>
+      <c r="F318" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" t="s">
+        <v>365</v>
+      </c>
+      <c r="H318" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>364</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s">
+        <v>247</v>
+      </c>
+      <c r="E319" t="s">
+        <v>7</v>
+      </c>
+      <c r="F319" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319">
+        <v>4030920265</v>
+      </c>
+      <c r="H319" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>341</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+      <c r="C320">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s">
+        <v>247</v>
+      </c>
+      <c r="E320" t="s">
+        <v>9</v>
+      </c>
+      <c r="F320" t="s">
+        <v>10</v>
+      </c>
+      <c r="G320" t="s">
+        <v>367</v>
+      </c>
+      <c r="H320" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>341</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s">
+        <v>247</v>
+      </c>
+      <c r="E321" t="s">
+        <v>7</v>
+      </c>
+      <c r="F321" t="s">
+        <v>10</v>
+      </c>
+      <c r="G321" t="s">
+        <v>366</v>
+      </c>
+      <c r="H321" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>368</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>12</v>
+      </c>
+      <c r="D322" t="s">
+        <v>247</v>
+      </c>
+      <c r="E322" t="s">
+        <v>9</v>
+      </c>
+      <c r="F322" t="s">
+        <v>9</v>
+      </c>
+      <c r="G322" t="s">
+        <v>55</v>
+      </c>
+      <c r="H322" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>369</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>12</v>
+      </c>
+      <c r="D323" t="s">
+        <v>247</v>
+      </c>
+      <c r="E323" t="s">
+        <v>7</v>
+      </c>
+      <c r="F323" t="s">
+        <v>9</v>
+      </c>
+      <c r="G323">
+        <v>8610780280</v>
+      </c>
+      <c r="H323" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>370</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>12</v>
+      </c>
+      <c r="D324" t="s">
+        <v>247</v>
+      </c>
+      <c r="E324" t="s">
+        <v>9</v>
+      </c>
+      <c r="F324" t="s">
+        <v>9</v>
+      </c>
+      <c r="G324" t="s">
+        <v>55</v>
+      </c>
+      <c r="H324" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>372</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>12</v>
+      </c>
+      <c r="D325" t="s">
+        <v>247</v>
+      </c>
+      <c r="E325" t="s">
+        <v>9</v>
+      </c>
+      <c r="F325" t="s">
+        <v>9</v>
+      </c>
+      <c r="G325" t="s">
+        <v>55</v>
+      </c>
+      <c r="H325" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>371</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>12</v>
+      </c>
+      <c r="D326" t="s">
+        <v>247</v>
+      </c>
+      <c r="E326" t="s">
+        <v>9</v>
+      </c>
+      <c r="F326" t="s">
+        <v>9</v>
+      </c>
+      <c r="G326" t="s">
+        <v>55</v>
+      </c>
+      <c r="H326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>373</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>12</v>
+      </c>
+      <c r="D327" t="s">
+        <v>247</v>
+      </c>
+      <c r="E327" t="s">
+        <v>9</v>
+      </c>
+      <c r="F327" t="s">
+        <v>9</v>
+      </c>
+      <c r="G327" t="s">
+        <v>55</v>
+      </c>
+      <c r="H327" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>374</v>
+      </c>
+      <c r="B328">
+        <v>2</v>
+      </c>
+      <c r="C328">
+        <v>12</v>
+      </c>
+      <c r="D328" t="s">
+        <v>247</v>
+      </c>
+      <c r="E328" t="s">
+        <v>9</v>
+      </c>
+      <c r="F328" t="s">
+        <v>9</v>
+      </c>
+      <c r="G328" t="s">
+        <v>55</v>
+      </c>
+      <c r="H328" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>375</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>12</v>
+      </c>
+      <c r="D329" t="s">
+        <v>247</v>
+      </c>
+      <c r="E329" t="s">
+        <v>9</v>
+      </c>
+      <c r="F329" t="s">
+        <v>9</v>
+      </c>
+      <c r="G329" t="s">
+        <v>55</v>
+      </c>
+      <c r="H329" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>376</v>
+      </c>
+      <c r="B330">
+        <v>15</v>
+      </c>
+      <c r="C330">
+        <v>13</v>
+      </c>
+      <c r="D330" t="s">
+        <v>247</v>
+      </c>
+      <c r="E330" t="s">
+        <v>9</v>
+      </c>
+      <c r="F330" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330" t="s">
+        <v>55</v>
+      </c>
+      <c r="H330" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>377</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>15</v>
+      </c>
+      <c r="D331" t="s">
+        <v>247</v>
+      </c>
+      <c r="E331" t="s">
+        <v>7</v>
+      </c>
+      <c r="F331" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331" t="s">
+        <v>378</v>
+      </c>
+      <c r="H331" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>379</v>
+      </c>
+      <c r="B332">
+        <v>14</v>
+      </c>
+      <c r="C332">
+        <v>13</v>
+      </c>
+      <c r="D332" t="s">
+        <v>247</v>
+      </c>
+      <c r="E332" t="s">
+        <v>9</v>
+      </c>
+      <c r="F332" t="s">
+        <v>10</v>
+      </c>
+      <c r="G332" t="s">
+        <v>55</v>
+      </c>
+      <c r="H332" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>376</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>15</v>
+      </c>
+      <c r="D333" t="s">
+        <v>247</v>
+      </c>
+      <c r="E333" t="s">
+        <v>9</v>
+      </c>
+      <c r="F333" t="s">
+        <v>10</v>
+      </c>
+      <c r="G333" t="s">
+        <v>380</v>
+      </c>
+      <c r="H333" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>381</v>
+      </c>
+      <c r="B334">
+        <v>2</v>
+      </c>
+      <c r="C334">
+        <v>13</v>
+      </c>
+      <c r="D334" t="s">
+        <v>247</v>
+      </c>
+      <c r="E334" t="s">
+        <v>7</v>
+      </c>
+      <c r="F334" t="s">
+        <v>10</v>
+      </c>
+      <c r="G334" t="s">
+        <v>382</v>
+      </c>
+      <c r="H334" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>383</v>
+      </c>
+      <c r="B335">
+        <v>2</v>
+      </c>
+      <c r="C335">
+        <v>13</v>
+      </c>
+      <c r="D335" t="s">
+        <v>247</v>
+      </c>
+      <c r="E335" t="s">
+        <v>7</v>
+      </c>
+      <c r="F335" t="s">
+        <v>10</v>
+      </c>
+      <c r="G335" t="s">
+        <v>385</v>
+      </c>
+      <c r="H335" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>384</v>
+      </c>
+      <c r="B336">
+        <v>5</v>
+      </c>
+      <c r="C336">
+        <v>13</v>
+      </c>
+      <c r="D336" t="s">
+        <v>247</v>
+      </c>
+      <c r="E336" t="s">
+        <v>9</v>
+      </c>
+      <c r="F336" t="s">
+        <v>10</v>
+      </c>
+      <c r="G336" t="s">
+        <v>55</v>
+      </c>
+      <c r="H336" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>386</v>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+      <c r="C337">
+        <v>13</v>
+      </c>
+      <c r="D337" t="s">
+        <v>247</v>
+      </c>
+      <c r="E337" t="s">
+        <v>9</v>
+      </c>
+      <c r="F337" t="s">
+        <v>10</v>
+      </c>
+      <c r="G337" t="s">
+        <v>55</v>
+      </c>
+      <c r="H337" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>387</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>13</v>
+      </c>
+      <c r="D338" t="s">
+        <v>247</v>
+      </c>
+      <c r="E338" t="s">
+        <v>9</v>
+      </c>
+      <c r="F338" t="s">
+        <v>9</v>
+      </c>
+      <c r="G338" t="s">
+        <v>55</v>
+      </c>
+      <c r="H338" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>388</v>
+      </c>
+      <c r="B339">
+        <v>2</v>
+      </c>
+      <c r="C339">
+        <v>13</v>
+      </c>
+      <c r="D339" t="s">
+        <v>247</v>
+      </c>
+      <c r="E339" t="s">
+        <v>7</v>
+      </c>
+      <c r="F339" t="s">
+        <v>10</v>
+      </c>
+      <c r="G339" t="s">
+        <v>391</v>
+      </c>
+      <c r="H339" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>389</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>13</v>
+      </c>
+      <c r="D340" t="s">
+        <v>247</v>
+      </c>
+      <c r="E340" t="s">
+        <v>9</v>
+      </c>
+      <c r="F340" t="s">
+        <v>10</v>
+      </c>
+      <c r="G340" t="s">
+        <v>390</v>
+      </c>
+      <c r="H340" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>392</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>13</v>
+      </c>
+      <c r="D341" t="s">
+        <v>247</v>
+      </c>
+      <c r="E341" t="s">
+        <v>7</v>
+      </c>
+      <c r="F341" t="s">
+        <v>10</v>
+      </c>
+      <c r="G341" t="s">
+        <v>393</v>
+      </c>
+      <c r="H341" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>394</v>
+      </c>
+      <c r="B342">
+        <v>4</v>
+      </c>
+      <c r="C342">
+        <v>14</v>
+      </c>
+      <c r="D342" t="s">
+        <v>247</v>
+      </c>
+      <c r="E342" t="s">
+        <v>7</v>
+      </c>
+      <c r="F342" t="s">
+        <v>10</v>
+      </c>
+      <c r="G342" t="s">
+        <v>398</v>
+      </c>
+      <c r="H342" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>395</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343">
+        <v>14</v>
+      </c>
+      <c r="D343" t="s">
+        <v>247</v>
+      </c>
+      <c r="E343" t="s">
+        <v>7</v>
+      </c>
+      <c r="F343" t="s">
+        <v>10</v>
+      </c>
+      <c r="G343" t="s">
+        <v>396</v>
+      </c>
+      <c r="H343" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>397</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>14</v>
+      </c>
+      <c r="D344" t="s">
+        <v>247</v>
+      </c>
+      <c r="E344" t="s">
+        <v>9</v>
+      </c>
+      <c r="F344" t="s">
+        <v>10</v>
+      </c>
+      <c r="G344">
+        <v>34250</v>
+      </c>
+      <c r="H344" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>399</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>14</v>
+      </c>
+      <c r="D345" t="s">
+        <v>247</v>
+      </c>
+      <c r="E345" t="s">
+        <v>9</v>
+      </c>
+      <c r="F345" t="s">
+        <v>9</v>
+      </c>
+      <c r="G345">
+        <v>516300063</v>
+      </c>
+      <c r="H345" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>400</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>14</v>
+      </c>
+      <c r="D346" t="s">
+        <v>247</v>
+      </c>
+      <c r="E346" t="s">
+        <v>7</v>
+      </c>
+      <c r="F346" t="s">
+        <v>10</v>
+      </c>
+      <c r="G346" t="s">
+        <v>55</v>
+      </c>
+      <c r="H346" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>401</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>15</v>
+      </c>
+      <c r="D347" t="s">
+        <v>247</v>
+      </c>
+      <c r="E347" t="s">
+        <v>7</v>
+      </c>
+      <c r="F347" t="s">
+        <v>10</v>
+      </c>
+      <c r="G347">
+        <v>640189</v>
+      </c>
+      <c r="H347" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>402</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>15</v>
+      </c>
+      <c r="D348" t="s">
+        <v>247</v>
+      </c>
+      <c r="E348" t="s">
+        <v>7</v>
+      </c>
+      <c r="F348" t="s">
+        <v>10</v>
+      </c>
+      <c r="G348" t="s">
+        <v>55</v>
+      </c>
+      <c r="H348" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>403</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>15</v>
+      </c>
+      <c r="D349" t="s">
+        <v>247</v>
+      </c>
+      <c r="E349" t="s">
+        <v>7</v>
+      </c>
+      <c r="F349" t="s">
+        <v>10</v>
+      </c>
+      <c r="G349">
+        <v>393118</v>
+      </c>
+      <c r="H349" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>404</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>15</v>
+      </c>
+      <c r="D350" t="s">
+        <v>247</v>
+      </c>
+      <c r="E350" t="s">
+        <v>7</v>
+      </c>
+      <c r="F350" t="s">
+        <v>10</v>
+      </c>
+      <c r="G350">
+        <v>13061</v>
+      </c>
+      <c r="H350" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>405</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>15</v>
+      </c>
+      <c r="D351" t="s">
+        <v>247</v>
+      </c>
+      <c r="E351" t="s">
+        <v>7</v>
+      </c>
+      <c r="F351" t="s">
+        <v>10</v>
+      </c>
+      <c r="G351">
+        <v>280733</v>
+      </c>
+      <c r="H351" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>406</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>15</v>
+      </c>
+      <c r="D352" t="s">
+        <v>247</v>
+      </c>
+      <c r="E352" t="s">
+        <v>7</v>
+      </c>
+      <c r="F352" t="s">
+        <v>10</v>
+      </c>
+      <c r="G352">
+        <v>91465</v>
+      </c>
+      <c r="H352" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>407</v>
+      </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
+      <c r="C353">
+        <v>15</v>
+      </c>
+      <c r="D353" t="s">
+        <v>247</v>
+      </c>
+      <c r="E353" t="s">
+        <v>9</v>
+      </c>
+      <c r="F353" t="s">
+        <v>10</v>
+      </c>
+      <c r="G353" t="s">
+        <v>55</v>
+      </c>
+      <c r="H353" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>408</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>15</v>
+      </c>
+      <c r="D354" t="s">
+        <v>247</v>
+      </c>
+      <c r="E354" t="s">
+        <v>9</v>
+      </c>
+      <c r="F354" t="s">
+        <v>10</v>
+      </c>
+      <c r="G354" t="s">
+        <v>55</v>
+      </c>
+      <c r="H354" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>409</v>
+      </c>
+      <c r="B355">
+        <v>14</v>
+      </c>
+      <c r="C355">
+        <v>15</v>
+      </c>
+      <c r="D355" t="s">
+        <v>247</v>
+      </c>
+      <c r="E355" t="s">
+        <v>9</v>
+      </c>
+      <c r="F355" t="s">
+        <v>10</v>
+      </c>
+      <c r="G355" t="s">
+        <v>55</v>
+      </c>
+      <c r="H355" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>410</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>15</v>
+      </c>
+      <c r="D356" t="s">
+        <v>247</v>
+      </c>
+      <c r="E356" t="s">
+        <v>9</v>
+      </c>
+      <c r="F356" t="s">
+        <v>10</v>
+      </c>
+      <c r="G356">
+        <v>91058</v>
+      </c>
+      <c r="H356" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>411</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>15</v>
+      </c>
+      <c r="D357" t="s">
+        <v>247</v>
+      </c>
+      <c r="E357" t="s">
+        <v>9</v>
+      </c>
+      <c r="F357" t="s">
+        <v>10</v>
+      </c>
+      <c r="G357">
+        <v>2460714</v>
+      </c>
+      <c r="H357" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>412</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>15</v>
+      </c>
+      <c r="D358" t="s">
+        <v>247</v>
+      </c>
+      <c r="E358" t="s">
+        <v>7</v>
+      </c>
+      <c r="F358" t="s">
+        <v>10</v>
+      </c>
+      <c r="G358">
+        <v>7171</v>
+      </c>
+      <c r="H358" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>413</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>16</v>
+      </c>
+      <c r="D359" t="s">
+        <v>247</v>
+      </c>
+      <c r="E359" t="s">
+        <v>7</v>
+      </c>
+      <c r="F359" t="s">
+        <v>10</v>
+      </c>
+      <c r="G359">
+        <v>9210031</v>
+      </c>
+      <c r="H359" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>414</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>16</v>
+      </c>
+      <c r="D360" t="s">
+        <v>247</v>
+      </c>
+      <c r="E360" t="s">
+        <v>9</v>
+      </c>
+      <c r="F360" t="s">
+        <v>10</v>
+      </c>
+      <c r="G360" t="s">
+        <v>55</v>
+      </c>
+      <c r="H360" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>414</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361">
+        <v>16</v>
+      </c>
+      <c r="D361" t="s">
+        <v>247</v>
+      </c>
+      <c r="E361" t="s">
+        <v>7</v>
+      </c>
+      <c r="F361" t="s">
+        <v>10</v>
+      </c>
+      <c r="G361" t="s">
+        <v>419</v>
+      </c>
+      <c r="H361" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>415</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>16</v>
+      </c>
+      <c r="D362" t="s">
+        <v>247</v>
+      </c>
+      <c r="E362" t="s">
+        <v>7</v>
+      </c>
+      <c r="F362" t="s">
+        <v>10</v>
+      </c>
+      <c r="G362">
+        <v>191500283</v>
+      </c>
+      <c r="H362" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>416</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363">
+        <v>16</v>
+      </c>
+      <c r="D363" t="s">
+        <v>247</v>
+      </c>
+      <c r="E363" t="s">
+        <v>9</v>
+      </c>
+      <c r="F363" t="s">
+        <v>10</v>
+      </c>
+      <c r="G363">
+        <v>10832</v>
+      </c>
+      <c r="H363" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>417</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>16</v>
+      </c>
+      <c r="D364" t="s">
+        <v>247</v>
+      </c>
+      <c r="E364" t="s">
+        <v>7</v>
+      </c>
+      <c r="F364" t="s">
+        <v>10</v>
+      </c>
+      <c r="G364">
+        <v>62434</v>
+      </c>
+      <c r="H364" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>311</v>
+      </c>
+      <c r="B365">
+        <v>2</v>
+      </c>
+      <c r="C365">
+        <v>16</v>
+      </c>
+      <c r="D365" t="s">
+        <v>247</v>
+      </c>
+      <c r="E365" t="s">
+        <v>9</v>
+      </c>
+      <c r="F365" t="s">
+        <v>10</v>
+      </c>
+      <c r="G365" t="s">
+        <v>55</v>
+      </c>
+      <c r="H365" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>418</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>16</v>
+      </c>
+      <c r="D366" t="s">
+        <v>247</v>
+      </c>
+      <c r="E366" t="s">
+        <v>9</v>
+      </c>
+      <c r="F366" t="s">
+        <v>10</v>
+      </c>
+      <c r="G366" t="s">
+        <v>55</v>
+      </c>
+      <c r="H366" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>415</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>16</v>
+      </c>
+      <c r="D367" t="s">
+        <v>247</v>
+      </c>
+      <c r="E367" t="s">
+        <v>7</v>
+      </c>
+      <c r="F367" t="s">
+        <v>10</v>
+      </c>
+      <c r="G367" t="s">
+        <v>55</v>
+      </c>
+      <c r="H367" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>420</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>16</v>
+      </c>
+      <c r="D368" t="s">
+        <v>247</v>
+      </c>
+      <c r="E368" t="s">
+        <v>7</v>
+      </c>
+      <c r="F368" t="s">
+        <v>10</v>
+      </c>
+      <c r="G368" t="s">
+        <v>421</v>
+      </c>
+      <c r="H368" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>422</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>16</v>
+      </c>
+      <c r="D369" t="s">
+        <v>247</v>
+      </c>
+      <c r="E369" t="s">
+        <v>7</v>
+      </c>
+      <c r="F369" t="s">
+        <v>10</v>
+      </c>
+      <c r="G369">
+        <v>1754</v>
+      </c>
+      <c r="H369" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>423</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>16</v>
+      </c>
+      <c r="D370" t="s">
+        <v>247</v>
+      </c>
+      <c r="E370" t="s">
+        <v>7</v>
+      </c>
+      <c r="F370" t="s">
+        <v>10</v>
+      </c>
+      <c r="G370" t="s">
+        <v>424</v>
+      </c>
+      <c r="H370" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>388</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>16</v>
+      </c>
+      <c r="D371" t="s">
+        <v>247</v>
+      </c>
+      <c r="E371" t="s">
+        <v>7</v>
+      </c>
+      <c r="F371" t="s">
+        <v>10</v>
+      </c>
+      <c r="G371" t="s">
+        <v>425</v>
+      </c>
+      <c r="H371" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>426</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>16</v>
+      </c>
+      <c r="D372" t="s">
+        <v>247</v>
+      </c>
+      <c r="E372" t="s">
+        <v>7</v>
+      </c>
+      <c r="F372" t="s">
+        <v>10</v>
+      </c>
+      <c r="G372" t="s">
+        <v>427</v>
+      </c>
+      <c r="H372" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>428</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>16</v>
+      </c>
+      <c r="D373" t="s">
+        <v>247</v>
+      </c>
+      <c r="E373" t="s">
+        <v>7</v>
+      </c>
+      <c r="F373" t="s">
+        <v>10</v>
+      </c>
+      <c r="G373" t="s">
+        <v>429</v>
+      </c>
+      <c r="H373" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>423</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>16</v>
+      </c>
+      <c r="D374" t="s">
+        <v>247</v>
+      </c>
+      <c r="E374" t="s">
+        <v>9</v>
+      </c>
+      <c r="F374" t="s">
+        <v>10</v>
+      </c>
+      <c r="G374" t="s">
+        <v>55</v>
+      </c>
+      <c r="H374" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>428</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>15</v>
+      </c>
+      <c r="D375" t="s">
+        <v>247</v>
+      </c>
+      <c r="E375" t="s">
+        <v>9</v>
+      </c>
+      <c r="F375" t="s">
+        <v>10</v>
+      </c>
+      <c r="G375" t="s">
+        <v>430</v>
+      </c>
+      <c r="H375" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>428</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>15</v>
+      </c>
+      <c r="D376" t="s">
+        <v>247</v>
+      </c>
+      <c r="E376" t="s">
+        <v>9</v>
+      </c>
+      <c r="F376" t="s">
+        <v>10</v>
+      </c>
+      <c r="G376" t="s">
+        <v>55</v>
+      </c>
+      <c r="H376" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>426</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>15</v>
+      </c>
+      <c r="D377" t="s">
+        <v>247</v>
+      </c>
+      <c r="E377" t="s">
+        <v>7</v>
+      </c>
+      <c r="F377" t="s">
+        <v>10</v>
+      </c>
+      <c r="G377" t="s">
+        <v>431</v>
+      </c>
+      <c r="H377" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>428</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>14</v>
+      </c>
+      <c r="D378" t="s">
+        <v>247</v>
+      </c>
+      <c r="E378" t="s">
+        <v>9</v>
+      </c>
+      <c r="F378" t="s">
+        <v>10</v>
+      </c>
+      <c r="G378" t="s">
+        <v>432</v>
+      </c>
+      <c r="H378" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>433</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>14</v>
+      </c>
+      <c r="D379" t="s">
+        <v>247</v>
+      </c>
+      <c r="E379" t="s">
+        <v>9</v>
+      </c>
+      <c r="F379" t="s">
+        <v>10</v>
+      </c>
+      <c r="G379" t="s">
+        <v>434</v>
+      </c>
+      <c r="H379" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>435</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>14</v>
+      </c>
+      <c r="D380" t="s">
+        <v>247</v>
+      </c>
+      <c r="E380" t="s">
+        <v>9</v>
+      </c>
+      <c r="F380" t="s">
+        <v>9</v>
+      </c>
+      <c r="G380" t="s">
+        <v>55</v>
+      </c>
+      <c r="H380" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>436</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381">
+        <v>17</v>
+      </c>
+      <c r="D381" t="s">
+        <v>247</v>
+      </c>
+      <c r="E381" t="s">
+        <v>9</v>
+      </c>
+      <c r="F381" t="s">
+        <v>10</v>
+      </c>
+      <c r="G381">
+        <v>655</v>
+      </c>
+      <c r="H381" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>437</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>17</v>
+      </c>
+      <c r="D382" t="s">
+        <v>247</v>
+      </c>
+      <c r="E382" t="s">
+        <v>7</v>
+      </c>
+      <c r="F382" t="s">
+        <v>10</v>
+      </c>
+      <c r="G382">
+        <v>2833037</v>
+      </c>
+      <c r="H382" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>438</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383">
+        <v>17</v>
+      </c>
+      <c r="D383" t="s">
+        <v>247</v>
+      </c>
+      <c r="E383" t="s">
+        <v>7</v>
+      </c>
+      <c r="F383" t="s">
+        <v>10</v>
+      </c>
+      <c r="G383" t="s">
+        <v>439</v>
+      </c>
+      <c r="H383" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>440</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>17</v>
+      </c>
+      <c r="D384" t="s">
+        <v>247</v>
+      </c>
+      <c r="E384" t="s">
+        <v>7</v>
+      </c>
+      <c r="F384" t="s">
+        <v>10</v>
+      </c>
+      <c r="G384">
+        <v>4761112</v>
+      </c>
+      <c r="H384" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>441</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+      <c r="C385">
+        <v>17</v>
+      </c>
+      <c r="D385" t="s">
+        <v>247</v>
+      </c>
+      <c r="E385" t="s">
+        <v>7</v>
+      </c>
+      <c r="F385" t="s">
+        <v>10</v>
+      </c>
+      <c r="G385">
+        <v>3852013</v>
+      </c>
+      <c r="H385" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>442</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>17</v>
+      </c>
+      <c r="D386" t="s">
+        <v>247</v>
+      </c>
+      <c r="E386" t="s">
+        <v>9</v>
+      </c>
+      <c r="F386" t="s">
+        <v>10</v>
+      </c>
+      <c r="G386">
+        <v>1774072</v>
+      </c>
+      <c r="H386" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>345</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387">
+        <v>17</v>
+      </c>
+      <c r="D387" t="s">
+        <v>247</v>
+      </c>
+      <c r="E387" t="s">
+        <v>9</v>
+      </c>
+      <c r="F387" t="s">
+        <v>10</v>
+      </c>
+      <c r="G387">
+        <v>24</v>
+      </c>
+      <c r="H387" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>443</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>17</v>
+      </c>
+      <c r="D388" t="s">
+        <v>247</v>
+      </c>
+      <c r="E388" t="s">
+        <v>7</v>
+      </c>
+      <c r="F388" t="s">
+        <v>10</v>
+      </c>
+      <c r="G388">
+        <v>954013</v>
+      </c>
+      <c r="H388" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>444</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>17</v>
+      </c>
+      <c r="D389" t="s">
+        <v>247</v>
+      </c>
+      <c r="E389" t="s">
+        <v>9</v>
+      </c>
+      <c r="F389" t="s">
+        <v>10</v>
+      </c>
+      <c r="G389">
+        <v>140131</v>
+      </c>
+      <c r="H389" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>445</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>17</v>
+      </c>
+      <c r="D390" t="s">
+        <v>247</v>
+      </c>
+      <c r="E390" t="s">
+        <v>7</v>
+      </c>
+      <c r="F390" t="s">
+        <v>10</v>
+      </c>
+      <c r="G390" t="s">
+        <v>446</v>
+      </c>
+      <c r="H390" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>447</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+      <c r="C391">
+        <v>17</v>
+      </c>
+      <c r="D391" t="s">
+        <v>247</v>
+      </c>
+      <c r="E391" t="s">
+        <v>9</v>
+      </c>
+      <c r="F391" t="s">
+        <v>10</v>
+      </c>
+      <c r="G391" t="s">
+        <v>448</v>
+      </c>
+      <c r="H391" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>449</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>17</v>
+      </c>
+      <c r="D392" t="s">
+        <v>247</v>
+      </c>
+      <c r="E392" t="s">
+        <v>7</v>
+      </c>
+      <c r="F392" t="s">
+        <v>10</v>
+      </c>
+      <c r="G392" t="s">
+        <v>450</v>
+      </c>
+      <c r="H392" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>451</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+      <c r="C393">
+        <v>17</v>
+      </c>
+      <c r="D393" t="s">
+        <v>247</v>
+      </c>
+      <c r="E393" t="s">
+        <v>9</v>
+      </c>
+      <c r="F393" t="s">
+        <v>9</v>
+      </c>
+      <c r="G393">
+        <v>67202483</v>
+      </c>
+      <c r="H393" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>452</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>17</v>
+      </c>
+      <c r="D394" t="s">
+        <v>247</v>
+      </c>
+      <c r="E394" t="s">
+        <v>9</v>
+      </c>
+      <c r="F394" t="s">
+        <v>9</v>
+      </c>
+      <c r="G394">
+        <v>4411836</v>
+      </c>
+      <c r="H394" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>453</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>17</v>
+      </c>
+      <c r="D395" t="s">
+        <v>247</v>
+      </c>
+      <c r="E395" t="s">
+        <v>9</v>
+      </c>
+      <c r="F395" t="s">
+        <v>10</v>
+      </c>
+      <c r="G395">
+        <v>1711</v>
+      </c>
+      <c r="H395" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>454</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>17</v>
+      </c>
+      <c r="D396" t="s">
+        <v>247</v>
+      </c>
+      <c r="E396" t="s">
+        <v>7</v>
+      </c>
+      <c r="F396" t="s">
+        <v>10</v>
+      </c>
+      <c r="G396" t="s">
+        <v>55</v>
+      </c>
+      <c r="H396" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
